--- a/Reach Wise Divison/BAvsWA/concatenated_file-Plotting.xlsx
+++ b/Reach Wise Divison/BAvsWA/concatenated_file-Plotting.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iiser-my.sharepoint.com/personal/sohan16_iiserb_ac_in/Documents/Excel data for Various Parameters/Reach Wise Divison/BAvsWA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_283DB79F5B2058611B393E11595ED87656CD1116" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C79BB53B-ACB0-4D21-BF6D-46580F7CF2BE}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_283DB79F5B2058611B393E11595ED87656CD1116" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{230B956E-9BC3-4FBC-B3AB-115738B17059}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="578" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>1965-Basemap-Exposed-Bar</t>
   </si>
@@ -113,6 +126,9 @@
   </si>
   <si>
     <t>Reach</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -123,7 +139,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Vrinda"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -198,6 +214,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,19 +505,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE10"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" activeCellId="2" sqref="C1:C10 H1:H10 M1:M10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="31" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="63" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -592,7 +612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -687,7 +707,7 @@
         <v>0.18680006151837</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -782,7 +802,7 @@
         <v>0.314685472774</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -877,7 +897,7 @@
         <v>0.488266624313</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -972,7 +992,7 @@
         <v>0.68374659329669996</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1067,7 +1087,7 @@
         <v>0.62943170218840006</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1162,7 +1182,7 @@
         <v>0.53163025083210902</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1257,7 +1277,7 @@
         <v>1.1946984493865</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1352,7 +1372,7 @@
         <v>0.82116289781200003</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1445,6 +1465,71 @@
       </c>
       <c r="AE10" s="2">
         <v>0.43146152061600002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B2:B10)</f>
+        <v>60.994500568999989</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:P11" si="0">SUM(C2:C10)</f>
+        <v>12.181115457000001</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>13.284513854</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>9.3514901609999974</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>12.697655001000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>16.250236575999999</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>3.6928236960000005</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>4.1011172030000012</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>5.067029229000001</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>8.1452128419999994</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>6.7346791330000002</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>8.6240995110000007</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>10.193247366</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>16.475242885</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>8.7182352209999987</v>
       </c>
     </row>
   </sheetData>
